--- a/biology/Médecine/Perversion_narcissique/Perversion_narcissique.xlsx
+++ b/biology/Médecine/Perversion_narcissique/Perversion_narcissique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La perversion narcissique est une notion théorisée par le psychiatre et psychanalyste Paul-Claude Racamier dans le domaine de la psychopathologie : elle indique non pas un type de personnalité, mais une pathologie relationnelle qui consiste en une déstructuration de la personnalité dans laquelle la notion d'altérité n'existe pas.
 Bien que les notions de perversion narcissique et de pervers narcissique aient été reprises et popularisées, elles ne sont pas reconnues par la communauté scientifique et ne figurent pas dans le Manuel diagnostique et statistique des troubles mentaux (DSM) ni dans l'ICD (Classification internationale des maladies). Plus encore, ces termes sont souvent galvaudés, renvoyant plutôt à des troubles de la personnalité narcissique.
@@ -514,26 +526,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Définition de Paul-Claude Racamier en 1986
-Elle est identifiée initialement par Paul-Claude Racamier qui décrit une forme particulière de perversion en 1986[1]. Il précise ensuite cette notion dans des publications en 1987[2] et 1992[3] ainsi que dans deux chapitres de son livre intitulé Génie des origines en 1992[4]. Il explique alors que :
-« Le mouvement pervers narcissique se définit essentiellement comme une façon organisée de se défendre de toute douleur et contradiction internes et de les expulser pour les faire couver ailleurs, tout en se survalorisant, tout cela aux dépens d’autrui[3]. »
-Il précise qu'il parle pour sa part d'une affaire collective, loin d'être individuelle ou intrapsychique[5].
-Avant sa définition même, la pensée de la notion aurait précédé sa formalisation, selon Paul-Claude Racamier lui-même, ainsi qu'il l'explique dans son article fondateur de 1986[1] (p. I306).
-En 1992 sort également le livre Génie des origines[4] dont les chapitres 9 et 10 font référence sur le thème de la perversion narcissique, au point d'être réédité en 2012 sous le titre Les perversions narcissiques[6].
+          <t>Définition de Paul-Claude Racamier en 1986</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est identifiée initialement par Paul-Claude Racamier qui décrit une forme particulière de perversion en 1986. Il précise ensuite cette notion dans des publications en 1987 et 1992 ainsi que dans deux chapitres de son livre intitulé Génie des origines en 1992. Il explique alors que :
+« Le mouvement pervers narcissique se définit essentiellement comme une façon organisée de se défendre de toute douleur et contradiction internes et de les expulser pour les faire couver ailleurs, tout en se survalorisant, tout cela aux dépens d’autrui. »
+Il précise qu'il parle pour sa part d'une affaire collective, loin d'être individuelle ou intrapsychique.
+Avant sa définition même, la pensée de la notion aurait précédé sa formalisation, selon Paul-Claude Racamier lui-même, ainsi qu'il l'explique dans son article fondateur de 1986 (p. I306).
+En 1992 sort également le livre Génie des origines dont les chapitres 9 et 10 font référence sur le thème de la perversion narcissique, au point d'être réédité en 2012 sous le titre Les perversions narcissiques.
 On trouve également en 1993 la définition concise suivante de Racamier :
-« une organisation durable caractérisée par la capacité à se mettre à l'abri des conflits internes, et en particulier du deuil, en se faisant valoir au détriment d'un objet manipulé comme un ustensile ou un faire-valoir[7]. »
-Mode opératoire du pervers narcissique
-Le pervers narcissique adopte un mode opératoire en trois phases distinctes : séduction, invasion, et destruction, marquant son interaction avec ses victimes[8].
-Séduction
-Lors de l'approche de sa victime, le pervers narcissique se présente sous son meilleur jour pour attirer, susciter de l’empathie et gagner la confiance de sa future victime. Cette phase de séduction est caractérisée par une démonstration d'intérêt et d'affection intense, qui dissimule ses véritables intentions.
-Invasion et assujettissement
-Progressivement, le pervers narcissique s'immisce dans la vie de sa victime, prenant le contrôle de son espace personnel, émotionnel et parfois financier. Il utilise diverses tactiques de manipulation telles que la critique, l'isolement, la dévalorisation et les injonctions paradoxales pour fragiliser sa victime et la rendre dépendante. Cette phase d'invasion est marquée par une augmentation progressive de l'emprise du pervers narcissique sur sa victime.
-Destruction
-Finalement, dans la phase de destruction, le pervers narcissique révèle sa nature véritablement destructrice, infligeant des dommages psychologiques profonds à sa victime. Les tactiques employées comprennent l'alternance entre la douceur et l'agressivité, l'insulte, la maltraitance physique et psychologique, et l'utilisation de la sexualité comme outil de manipulation. Cette phase vise à anéantir l'estime de soi de la victime, la laissant dans un état de dépendance et de désarroi total.
-Autres auteurs
-La notion est explicitée par Alberto Eiguer en 1989 dans Le Pervers narcissique et son complice[9] qui parlera plus tard d'un « cas particulier de la pathologie du narcissisme »[10].
-La notion de harcèlement moral décrite par Marie-France Hirigoyen en 1998[11] fait référence à celle de « pervers narcissique » et popularise cette notion. Dès lors, de multiples articles de presse[12]. Dans cette expression ainsi devenue populaire, il n'est désormais plus question ni de l' « agonie psychique » ni du « déni psychotique » de l'article fondateur de Paul-Claude Racamier[1].
-La perversion narcissique n'a jamais été un trouble clinique reconnu, contrairement par exemple au trouble de la personnalité narcissique[13].
+« une organisation durable caractérisée par la capacité à se mettre à l'abri des conflits internes, et en particulier du deuil, en se faisant valoir au détriment d'un objet manipulé comme un ustensile ou un faire-valoir. »
 </t>
         </is>
       </c>
@@ -559,20 +564,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation dans l'œuvre et la pensée de Paul-Claude Racamier</t>
+          <t>Historique de la notion</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La thématique semble émerger de l'étude des paradoxes de la schizophrénie par Racamier qui écrit en 1978 dans un article : « Après tout, le narcissisme n'était qu’une perversion parmi d’autres dans l’inventaire d’Havelock Ellis, avant que Freud, reprenant le mot, ne trouve à la notion les prolongements qui l'ont transfigurée (si l’idée du narcissisme vient à propos du paradoxe, ce n’est pas par hasard). » Intitulé « Schizophrénie et Paradoxalité », l'article porte aussi un sous-titre évocateur : « Où l’on voit les schizophrènes donner une réponse inédite à la question de Hamlet »[14].
-Deux ans plus tard, en 1980, il énonce cette fois explicitement la notion de « perversion narcissique » dans un livre intitulé Les Schizophrènes[15] : « On s'attachera dans ce rapport à montrer que la schizophrénie s'organise de manière aléatoire le long du trajet qui va de la psychose aiguë à la perversion narcissique ». Le titre du chapitre peut là encore être noté : « De plusieurs constantes psychotiques, où l'on oppose l'anticonflictualité des schizophrènes à l'intraconflictualité des névroses ».
-La notion de perversion narcissique n'est définie que lorsque Racamier développe la thématique en 1986 dans son article intitulé « Entre agonie psychique, déni psychotique et perversion narcissique »[1].
-Il y chemine dans la déconstruction psychique puis la reconstruction en ce qui fait plaisir[incompréhensible]. Pour cela, il se réfère à la notion freudienne de déni, et précise que « toute psychose avérée est le fruit d'un déni qui échoue » (p. I301), puis évoque le principe de cette « catastrophe psychique » (p. I304) avant d'aborder l'auto-engendrement autour de ce qui satisfait la psyché en parlant d'« orgasmes du moi » dont font partie les perversions narcissiques (l'intitulé est au pluriel).
-Il rappelle l'utilisation préalable de cette terminologique par lui-même, aussi par P. Greenacre et J. Chasseguet entre autres, (p. I306) avant de définir (p. I307) une : « propension active du sujet à nourrir son propre narcissisme aux dépens de celui d'autrui ; ce n'est donc pas d'une perversion sexuelle : plutôt d'une perversité » qu'il s'agit. Il explique ensuite :
-« Sa fonction est double : il s'agit pour le perversif d'assurer sa propre immunité par-devers le conflit et les douleurs de deuil, et de se valoriser narcissiquement (par rapport a des failles profondes et cachées) en attaquant le moi de l'autre et en jouissant de sa déroute ; cette déroute lui est ensuite imputée, ce qui fait que la jouissance perversive est toujours redoublée. (p. I307[1]) »
-D'autre part, il attache cette notion de perversion narcissique à un rapport singulier à la verbalisation (p. I308) : « Dans la psychose les mots sont surinvestis à la place des objets, mais dans la perversion narcissique, c'est la parole qui est surinvestie au détriment des êtres. Et ce n'est pas, comme dans la psychose, la réalité qui est surinvestie, c'est la vérité ». Ce qu'il synthétise ensuite en une phrase simple : 
-« Pour eux un mensonge réussi compte comme une vérité. »
-Il précise le sujet dans des articles en 1987 : « De la perversion narcissique »[2], et en 1992 « Pensée perverse et décervelage »[3].
+          <t>Mode opératoire du pervers narcissique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pervers narcissique adopte un mode opératoire en trois phases distinctes : séduction, invasion, et destruction, marquant son interaction avec ses victimes.
 </t>
         </is>
       </c>
@@ -598,15 +601,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Réutilisations et réajustements</t>
+          <t>Historique de la notion</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 1989, un autre auteur, Alberto Eiguer, utilise cette notion de « perversion narcissique » pour décrire "le pervers narcissique et son complice" dans un ouvrage du même nom[9]. Il y cite Racamier, mais décrit une personnalité, alors que Racamier se borne plutôt à expliquer un mécanisme, lui parle de mouvement, et dans l'article de 1992 il explique :
-« Je parle au singulier. Il faudrait parler au pluriel. C’est que la perversion narcissique est loin d’être une affaire individuelle : c’est une affaire collective, et à partir du moment où les espaces psychiques sont transgressés, nous savons que tous les débordements sont possibles.
-Pareillement, le mouvement pervers est loin d’être une affaire intrapsychique. C’est une affaire hautement interactive. Car il est tellement, ce mouvement, tourné vers autrui, qu’il ne cesse de s’en servir[16]. »
-Selon Gérard Bayle, Racamier ne cherche pas à qualifier des individus mais à identifier l'origine d'un dysfonctionnement dans les interactions : il explique que la notion « sert son souci de décrire et de traquer les processus pervers dans les familles et dans les groupes »[17]. Racamier qui précise « Il n’y a rien à attendre de la fréquentation des pervers narcissiques, on peut seulement espérer s’en sortir indemne. »[18].
+          <t>Mode opératoire du pervers narcissique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Séduction</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de l'approche de sa victime, le pervers narcissique se présente sous son meilleur jour pour attirer, susciter de l’empathie et gagner la confiance de sa future victime. Cette phase de séduction est caractérisée par une démonstration d'intérêt et d'affection intense, qui dissimule ses véritables intentions.
 </t>
         </is>
       </c>
@@ -632,21 +642,221 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Historique de la notion</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mode opératoire du pervers narcissique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Invasion et assujettissement</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Progressivement, le pervers narcissique s'immisce dans la vie de sa victime, prenant le contrôle de son espace personnel, émotionnel et parfois financier. Il utilise diverses tactiques de manipulation telles que la critique, l'isolement, la dévalorisation et les injonctions paradoxales pour fragiliser sa victime et la rendre dépendante. Cette phase d'invasion est marquée par une augmentation progressive de l'emprise du pervers narcissique sur sa victime.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Perversion_narcissique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Perversion_narcissique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique de la notion</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mode opératoire du pervers narcissique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Destruction</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Finalement, dans la phase de destruction, le pervers narcissique révèle sa nature véritablement destructrice, infligeant des dommages psychologiques profonds à sa victime. Les tactiques employées comprennent l'alternance entre la douceur et l'agressivité, l'insulte, la maltraitance physique et psychologique, et l'utilisation de la sexualité comme outil de manipulation. Cette phase vise à anéantir l'estime de soi de la victime, la laissant dans un état de dépendance et de désarroi total.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Perversion_narcissique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Perversion_narcissique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique de la notion</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres auteurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La notion est explicitée par Alberto Eiguer en 1989 dans Le Pervers narcissique et son complice qui parlera plus tard d'un « cas particulier de la pathologie du narcissisme ».
+La notion de harcèlement moral décrite par Marie-France Hirigoyen en 1998 fait référence à celle de « pervers narcissique » et popularise cette notion. Dès lors, de multiples articles de presse. Dans cette expression ainsi devenue populaire, il n'est désormais plus question ni de l' « agonie psychique » ni du « déni psychotique » de l'article fondateur de Paul-Claude Racamier.
+La perversion narcissique n'a jamais été un trouble clinique reconnu, contrairement par exemple au trouble de la personnalité narcissique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Perversion_narcissique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Perversion_narcissique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Situation dans l'œuvre et la pensée de Paul-Claude Racamier</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La thématique semble émerger de l'étude des paradoxes de la schizophrénie par Racamier qui écrit en 1978 dans un article : « Après tout, le narcissisme n'était qu’une perversion parmi d’autres dans l’inventaire d’Havelock Ellis, avant que Freud, reprenant le mot, ne trouve à la notion les prolongements qui l'ont transfigurée (si l’idée du narcissisme vient à propos du paradoxe, ce n’est pas par hasard). » Intitulé « Schizophrénie et Paradoxalité », l'article porte aussi un sous-titre évocateur : « Où l’on voit les schizophrènes donner une réponse inédite à la question de Hamlet ».
+Deux ans plus tard, en 1980, il énonce cette fois explicitement la notion de « perversion narcissique » dans un livre intitulé Les Schizophrènes : « On s'attachera dans ce rapport à montrer que la schizophrénie s'organise de manière aléatoire le long du trajet qui va de la psychose aiguë à la perversion narcissique ». Le titre du chapitre peut là encore être noté : « De plusieurs constantes psychotiques, où l'on oppose l'anticonflictualité des schizophrènes à l'intraconflictualité des névroses ».
+La notion de perversion narcissique n'est définie que lorsque Racamier développe la thématique en 1986 dans son article intitulé « Entre agonie psychique, déni psychotique et perversion narcissique ».
+Il y chemine dans la déconstruction psychique puis la reconstruction en ce qui fait plaisir[incompréhensible]. Pour cela, il se réfère à la notion freudienne de déni, et précise que « toute psychose avérée est le fruit d'un déni qui échoue » (p. I301), puis évoque le principe de cette « catastrophe psychique » (p. I304) avant d'aborder l'auto-engendrement autour de ce qui satisfait la psyché en parlant d'« orgasmes du moi » dont font partie les perversions narcissiques (l'intitulé est au pluriel).
+Il rappelle l'utilisation préalable de cette terminologique par lui-même, aussi par P. Greenacre et J. Chasseguet entre autres, (p. I306) avant de définir (p. I307) une : « propension active du sujet à nourrir son propre narcissisme aux dépens de celui d'autrui ; ce n'est donc pas d'une perversion sexuelle : plutôt d'une perversité » qu'il s'agit. Il explique ensuite :
+« Sa fonction est double : il s'agit pour le perversif d'assurer sa propre immunité par-devers le conflit et les douleurs de deuil, et de se valoriser narcissiquement (par rapport a des failles profondes et cachées) en attaquant le moi de l'autre et en jouissant de sa déroute ; cette déroute lui est ensuite imputée, ce qui fait que la jouissance perversive est toujours redoublée. (p. I307) »
+D'autre part, il attache cette notion de perversion narcissique à un rapport singulier à la verbalisation (p. I308) : « Dans la psychose les mots sont surinvestis à la place des objets, mais dans la perversion narcissique, c'est la parole qui est surinvestie au détriment des êtres. Et ce n'est pas, comme dans la psychose, la réalité qui est surinvestie, c'est la vérité ». Ce qu'il synthétise ensuite en une phrase simple : 
+« Pour eux un mensonge réussi compte comme une vérité. »
+Il précise le sujet dans des articles en 1987 : « De la perversion narcissique », et en 1992 « Pensée perverse et décervelage ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Perversion_narcissique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Perversion_narcissique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Réutilisations et réajustements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1989, un autre auteur, Alberto Eiguer, utilise cette notion de « perversion narcissique » pour décrire "le pervers narcissique et son complice" dans un ouvrage du même nom. Il y cite Racamier, mais décrit une personnalité, alors que Racamier se borne plutôt à expliquer un mécanisme, lui parle de mouvement, et dans l'article de 1992 il explique :
+« Je parle au singulier. Il faudrait parler au pluriel. C’est que la perversion narcissique est loin d’être une affaire individuelle : c’est une affaire collective, et à partir du moment où les espaces psychiques sont transgressés, nous savons que tous les débordements sont possibles.
+Pareillement, le mouvement pervers est loin d’être une affaire intrapsychique. C’est une affaire hautement interactive. Car il est tellement, ce mouvement, tourné vers autrui, qu’il ne cesse de s’en servir. »
+Selon Gérard Bayle, Racamier ne cherche pas à qualifier des individus mais à identifier l'origine d'un dysfonctionnement dans les interactions : il explique que la notion « sert son souci de décrire et de traquer les processus pervers dans les familles et dans les groupes ». Racamier qui précise « Il n’y a rien à attendre de la fréquentation des pervers narcissiques, on peut seulement espérer s’en sortir indemne. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Perversion_narcissique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Perversion_narcissique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Le concept de Racamier par rapport aux notions respectives de perversion et de narcissisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par l'étymologie, la perversion peut être définie au sens B donné par le CNRTL comme l'« action de détourner quelque chose de sa vraie nature »[19].
-En référence au mythe de Narcisse, le narcissisme peut être défini psychologiquement (Sens A du CNRTL) comme un « intérêt excessif pour (l'image de) soi, associant survalorisation de soi et dévalorisation de l'autre, habituel chez l'enfant, courant chez l'adolescent, compensatoire chez l'adulte »[20].
-En tant que notion de Paul-Claude Racamier au départ, la « perversion narcissique » est issue de l'association théorique opérée par celui-ci des notions freudiennes de « perversion » et de « narcissisme » auxquelles il fait référence : dans l'article originel[1] il invoque Freud à de nombreuses reprises et utilise la sexualisation de la psyché en parlant d'« orgasme psychotique du moi » et d'« érotisation des défenses » pour intituler les chapitres qui précédent celui intitulé « perversions narcissiques » (p. I306)[source insuffisante].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par l'étymologie, la perversion peut être définie au sens B donné par le CNRTL comme l'« action de détourner quelque chose de sa vraie nature ».
+En référence au mythe de Narcisse, le narcissisme peut être défini psychologiquement (Sens A du CNRTL) comme un « intérêt excessif pour (l'image de) soi, associant survalorisation de soi et dévalorisation de l'autre, habituel chez l'enfant, courant chez l'adolescent, compensatoire chez l'adulte ».
+En tant que notion de Paul-Claude Racamier au départ, la « perversion narcissique » est issue de l'association théorique opérée par celui-ci des notions freudiennes de « perversion » et de « narcissisme » auxquelles il fait référence : dans l'article originel il invoque Freud à de nombreuses reprises et utilise la sexualisation de la psyché en parlant d'« orgasme psychotique du moi » et d'« érotisation des défenses » pour intituler les chapitres qui précédent celui intitulé « perversions narcissiques » (p. I306)[source insuffisante].
 Racamier propose dans le cadre de cette théorie le principe d'une réorganisation psychique alternative à la psychose, mais utilisant pourtant les mêmes ressorts d'« érotisation des défenses », mais dans un cadre théorique nouveau. Une distinction peut alors être présentée relativement à la perversion « non narcissique » et au trouble de la personnalité narcissique.[réf. nécessaire]
 Il n'additionne pas ces deux notions décrites, mais renvoie aux notions telles que dépeintes par Freud pour décrire une situation singulière et non assimilable à ces dernières : relativement au narcissisme il a même été défendu que le rapport était inversé[pas clair]. La Revue française de psychanalyse fait le lien avec la notion d'anti-narcissisme de Francis Pasche pour expliquer que :
-« Dans la perversion narcissique décrite par Racamier, la dimension anti-narcissique est devenue inapparente : elle aurait disparu, se serait effacée. Mais le pervers narcissique a pourtant “besoin” des autres comme “ustensiles” pour échapper à sa conflictualité interne[21] »
+« Dans la perversion narcissique décrite par Racamier, la dimension anti-narcissique est devenue inapparente : elle aurait disparu, se serait effacée. Mais le pervers narcissique a pourtant “besoin” des autres comme “ustensiles” pour échapper à sa conflictualité interne »
 Le trouble de la personnalité narcissique serait encore compensé par une pulsion inverse, vers plus d'image de soi-même, qui serait rendue imperceptible dans le cas de cette perversion narcissique puisque c'est l'image de l'autre qui est utilisée.[réf. souhaitée]
-Relativement à la perversion chez Freud, la distinction conceptuelle de la perversion narcissique ne fait pas l'unanimité en matière de pertinence. Paul-Claude Racamier distingue une perversion à but exclusivement narcissique, ce qu'il exprime dans la phrase « Tuez-les, ils s’en foutent, humiliez-les, ils en crèvent »[22]. D'autres psychanalystes, dont Marie-Claude Defores, Dominique-France Tayebaly ou Serge Reznik, soutiennent que, dans la réalité clinique, elle ne diffère pas de la perversion selon Freud[23]. Cette notion suffirait dans la mesure où « le mot de perversion est employé pour qualifier l'instrumentalisation de l'humain et toutes les entreprises de désubjectivation »[24].
-La distinction relativement à la perversion sexuelle est explicite chez Racamier « Ce n'est pas une perversion sexuelle, plutôt une perversité. »(p. I307)[1]. Ce qui rejoint le cadre[Qui ?] défini pas Jean Bergeret qui distingue la « perversion de caractère »[25] dont l'objectif est de dénier à l'autre la possibilité de ressentir des intérêts propres afin de nourrir les siens, de la « perversion sexuelle » dont le but est d'imposer ses pulsions et fantasmes sexuels aux autres sans leur accord[réf. souhaitée].
-Le placement de la perversion narcissique relativement à chacune de ces deux pathologies est pourtant explicite dans la définition de 1986[1](p. I307) :
+Relativement à la perversion chez Freud, la distinction conceptuelle de la perversion narcissique ne fait pas l'unanimité en matière de pertinence. Paul-Claude Racamier distingue une perversion à but exclusivement narcissique, ce qu'il exprime dans la phrase « Tuez-les, ils s’en foutent, humiliez-les, ils en crèvent ». D'autres psychanalystes, dont Marie-Claude Defores, Dominique-France Tayebaly ou Serge Reznik, soutiennent que, dans la réalité clinique, elle ne diffère pas de la perversion selon Freud. Cette notion suffirait dans la mesure où « le mot de perversion est employé pour qualifier l'instrumentalisation de l'humain et toutes les entreprises de désubjectivation ».
+La distinction relativement à la perversion sexuelle est explicite chez Racamier « Ce n'est pas une perversion sexuelle, plutôt une perversité. »(p. I307). Ce qui rejoint le cadre[Qui ?] défini pas Jean Bergeret qui distingue la « perversion de caractère » dont l'objectif est de dénier à l'autre la possibilité de ressentir des intérêts propres afin de nourrir les siens, de la « perversion sexuelle » dont le but est d'imposer ses pulsions et fantasmes sexuels aux autres sans leur accord[réf. souhaitée].
+Le placement de la perversion narcissique relativement à chacune de ces deux pathologies est pourtant explicite dans la définition de 1986(p. I307) :
 « Il est cependant vrai que les narcissiques les plus pervers se dérobent à nos regards de clinicien ; mieux vaudrait même pour nous de ne pas avoir trop à croiser leur chemin. C'est bien de ceux-là qu'il s'agit quand on décrit les imposteurs (P. Greenacre) et les escrocs. »
 Racamier précise avant qu'il peut s'agir de « psychotiques plus ou moins cicatrisés sur le mode perversif ou de mère de psychotique ». On a donc, d'après la formalisation de la notion de 1986, affaire à la fois à une sorte de narcissique, et une sorte de pervers, mais hors du cadre clinique habituel, car, comme il le précise ensuite, « la perversité est tournée vers le social ».
 </t>
